--- a/target/test-classes/datatest/Crm.xlsx
+++ b/target/test-classes/datatest/Crm.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnhTester\SeleniumTestNGParallel\src\test\resources\datatest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo.nopcommerce.com\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B520C9-A850-41C2-8910-2E4C7BCDDABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>EMAIL</t>
   </si>
@@ -32,26 +33,16 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>RESULD</t>
+    <t>admin@yourstore.com</t>
   </si>
   <si>
-    <t>admin@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>1234567</t>
+    <t>demo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,9 +69,6 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -96,14 +84,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,18 +371,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.7109375"/>
-    <col min="2" max="2" customWidth="true" width="11.85546875"/>
-    <col min="3" max="3" customWidth="true" width="25.5703125"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -407,36 +392,23 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
